--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H2">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I2">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J2">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.688919666666667</v>
+        <v>0.5843273333333333</v>
       </c>
       <c r="N2">
-        <v>5.066759</v>
+        <v>1.752982</v>
       </c>
       <c r="O2">
-        <v>0.02013910563427162</v>
+        <v>0.007060666168730862</v>
       </c>
       <c r="P2">
-        <v>0.02013910563427162</v>
+        <v>0.007060666168730861</v>
       </c>
       <c r="Q2">
-        <v>45.78633912132056</v>
+        <v>15.73562967824711</v>
       </c>
       <c r="R2">
-        <v>412.077052091885</v>
+        <v>141.620667104224</v>
       </c>
       <c r="S2">
-        <v>0.01869794611840439</v>
+        <v>0.006552262755009174</v>
       </c>
       <c r="T2">
-        <v>0.01869794611840438</v>
+        <v>0.006552262755009173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H3">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I3">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J3">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>224.513702</v>
       </c>
       <c r="O3">
-        <v>0.8923860718300156</v>
+        <v>0.9042969637611353</v>
       </c>
       <c r="P3">
-        <v>0.8923860718300156</v>
+        <v>0.9042969637611354</v>
       </c>
       <c r="Q3">
-        <v>2028.843388279392</v>
+        <v>2015.345549677252</v>
       </c>
       <c r="R3">
-        <v>18259.59049451453</v>
+        <v>18138.10994709526</v>
       </c>
       <c r="S3">
-        <v>0.8285266978041582</v>
+        <v>0.8391830421554977</v>
       </c>
       <c r="T3">
-        <v>0.8285266978041581</v>
+        <v>0.8391830421554978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.10983833333333</v>
+        <v>26.92947733333333</v>
       </c>
       <c r="H4">
-        <v>81.329515</v>
+        <v>80.788432</v>
       </c>
       <c r="I4">
-        <v>0.9284397459331688</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="J4">
-        <v>0.9284397459331687</v>
+        <v>0.9279949792877585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.335874333333334</v>
+        <v>7.335874333333333</v>
       </c>
       <c r="N4">
         <v>22.007623</v>
       </c>
       <c r="O4">
-        <v>0.08747482253571279</v>
+        <v>0.08864237007013374</v>
       </c>
       <c r="P4">
-        <v>0.08747482253571279</v>
+        <v>0.08864237007013374</v>
       </c>
       <c r="Q4">
-        <v>198.8743672103161</v>
+        <v>197.5512615796818</v>
       </c>
       <c r="R4">
-        <v>1789.869304892845</v>
+        <v>1777.961354217136</v>
       </c>
       <c r="S4">
-        <v>0.08121510201060621</v>
+        <v>0.0822596743772516</v>
       </c>
       <c r="T4">
-        <v>0.08121510201060619</v>
+        <v>0.0822596743772516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.57244</v>
       </c>
       <c r="I5">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J5">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.688919666666667</v>
+        <v>0.5843273333333333</v>
       </c>
       <c r="N5">
-        <v>5.066759</v>
+        <v>1.752982</v>
       </c>
       <c r="O5">
-        <v>0.02013910563427162</v>
+        <v>0.007060666168730862</v>
       </c>
       <c r="P5">
-        <v>0.02013910563427162</v>
+        <v>0.007060666168730861</v>
       </c>
       <c r="Q5">
-        <v>2.011188057995556</v>
+        <v>0.6958247795644444</v>
       </c>
       <c r="R5">
-        <v>18.10069252196</v>
+        <v>6.262423016079999</v>
       </c>
       <c r="S5">
-        <v>0.0008213167216259997</v>
+        <v>0.0002897390749767859</v>
       </c>
       <c r="T5">
-        <v>0.0008213167216259997</v>
+        <v>0.0002897390749767859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.57244</v>
       </c>
       <c r="I6">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J6">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>224.513702</v>
       </c>
       <c r="O6">
-        <v>0.8923860718300156</v>
+        <v>0.9042969637611353</v>
       </c>
       <c r="P6">
-        <v>0.8923860718300156</v>
+        <v>0.9042969637611354</v>
       </c>
       <c r="Q6">
         <v>89.11796995254223</v>
@@ -818,10 +818,10 @@
         <v>802.06172957288</v>
       </c>
       <c r="S6">
-        <v>0.03639345342589941</v>
+        <v>0.03710842001634573</v>
       </c>
       <c r="T6">
-        <v>0.03639345342589941</v>
+        <v>0.03710842001634573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.57244</v>
       </c>
       <c r="I7">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="J7">
-        <v>0.04078218449921273</v>
+        <v>0.04103565698374688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.335874333333334</v>
+        <v>7.335874333333333</v>
       </c>
       <c r="N7">
         <v>22.007623</v>
       </c>
       <c r="O7">
-        <v>0.08747482253571279</v>
+        <v>0.08864237007013374</v>
       </c>
       <c r="P7">
-        <v>0.08747482253571279</v>
+        <v>0.08864237007013374</v>
       </c>
       <c r="Q7">
-        <v>8.735656967791112</v>
+        <v>8.73565696779111</v>
       </c>
       <c r="R7">
-        <v>78.62091271012001</v>
+        <v>78.62091271012</v>
       </c>
       <c r="S7">
-        <v>0.003567414351687331</v>
+        <v>0.003637497892424359</v>
       </c>
       <c r="T7">
-        <v>0.003567414351687331</v>
+        <v>0.003637497892424359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H8">
         <v>2.696099</v>
       </c>
       <c r="I8">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J8">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.688919666666667</v>
+        <v>0.5843273333333333</v>
       </c>
       <c r="N8">
-        <v>5.066759</v>
+        <v>1.752982</v>
       </c>
       <c r="O8">
-        <v>0.02013910563427162</v>
+        <v>0.007060666168730862</v>
       </c>
       <c r="P8">
-        <v>0.02013910563427162</v>
+        <v>0.007060666168730861</v>
       </c>
       <c r="Q8">
-        <v>1.517831541460111</v>
+        <v>0.5251347796908888</v>
       </c>
       <c r="R8">
-        <v>13.660483873141</v>
+        <v>4.726213017217999</v>
       </c>
       <c r="S8">
-        <v>0.0006198427942412291</v>
+        <v>0.0002186643387449019</v>
       </c>
       <c r="T8">
-        <v>0.000619842794241229</v>
+        <v>0.0002186643387449019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H9">
         <v>2.696099</v>
       </c>
       <c r="I9">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J9">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>224.513702</v>
       </c>
       <c r="O9">
-        <v>0.8923860718300156</v>
+        <v>0.9042969637611353</v>
       </c>
       <c r="P9">
-        <v>0.8923860718300156</v>
+        <v>0.9042969637611354</v>
       </c>
       <c r="Q9">
-        <v>67.25679638316646</v>
+        <v>67.25679638316645</v>
       </c>
       <c r="R9">
-        <v>605.3111674484982</v>
+        <v>605.3111674484981</v>
       </c>
       <c r="S9">
-        <v>0.027465920599958</v>
+        <v>0.02800550158929183</v>
       </c>
       <c r="T9">
-        <v>0.027465920599958</v>
+        <v>0.02800550158929184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8986996666666668</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H10">
         <v>2.696099</v>
       </c>
       <c r="I10">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="J10">
-        <v>0.03077806956761848</v>
+        <v>0.03096936372849452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.335874333333334</v>
+        <v>7.335874333333333</v>
       </c>
       <c r="N10">
         <v>22.007623</v>
       </c>
       <c r="O10">
-        <v>0.08747482253571279</v>
+        <v>0.08864237007013374</v>
       </c>
       <c r="P10">
-        <v>0.08747482253571279</v>
+        <v>0.08864237007013374</v>
       </c>
       <c r="Q10">
-        <v>6.592747818075224</v>
+        <v>6.592747818075221</v>
       </c>
       <c r="R10">
-        <v>59.33473036267701</v>
+        <v>59.33473036267699</v>
       </c>
       <c r="S10">
-        <v>0.002692306173419249</v>
+        <v>0.002745197800457788</v>
       </c>
       <c r="T10">
-        <v>0.002692306173419249</v>
+        <v>0.002745197800457789</v>
       </c>
     </row>
   </sheetData>
